--- a/data/coded_segments/zm_5_2.xlsx
+++ b/data/coded_segments/zm_5_2.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AADB3B8-C60C-5447-BDB7-8DB2E1366BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2832,7 +2828,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2982,10 +2978,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3008,7 +3007,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3020,7 +3019,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3037,9 +3036,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3067,14 +3066,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3102,6 +3118,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3253,7 +3286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -3311,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -3352,7 +3385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -3393,7 +3426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4582,7 +4615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5271,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -5279,7 +5312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -5320,7 +5353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -5402,7 +5435,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -5771,7 +5804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -5894,7 +5927,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -5976,7 +6009,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -6017,7 +6050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -6058,7 +6091,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -6099,7 +6132,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -7534,7 +7567,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -7575,7 +7608,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -7616,7 +7649,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -7657,7 +7690,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -7698,7 +7731,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -8887,7 +8920,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -8928,7 +8961,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -10199,7 +10232,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -10240,7 +10273,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -10281,7 +10314,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
@@ -10322,7 +10355,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>13</v>
       </c>
@@ -10363,7 +10396,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>13</v>
       </c>
@@ -10404,7 +10437,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>13</v>
       </c>
@@ -10978,7 +11011,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>13</v>
       </c>
@@ -11019,7 +11052,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>13</v>
       </c>
@@ -11060,7 +11093,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>13</v>
       </c>
@@ -11101,7 +11134,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>13</v>
       </c>
@@ -11142,7 +11175,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>13</v>
       </c>
@@ -11183,7 +11216,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>13</v>
       </c>
@@ -11224,7 +11257,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>13</v>
       </c>
@@ -11265,7 +11298,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
@@ -12372,7 +12405,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>13</v>
       </c>
@@ -12413,7 +12446,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>13</v>
       </c>
@@ -12454,7 +12487,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>13</v>
       </c>
@@ -12495,7 +12528,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>13</v>
       </c>
@@ -12536,7 +12569,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -12577,7 +12610,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>13</v>
       </c>
@@ -12618,7 +12651,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>13</v>
       </c>
@@ -12700,7 +12733,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>13</v>
       </c>
@@ -12741,7 +12774,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>13</v>
       </c>
@@ -12782,7 +12815,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>13</v>
       </c>
@@ -12823,7 +12856,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>13</v>
       </c>
@@ -13438,7 +13471,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>13</v>
       </c>
@@ -13561,7 +13594,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>13</v>
       </c>
@@ -13602,7 +13635,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>13</v>
       </c>
@@ -14832,7 +14865,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>13</v>
       </c>
@@ -15078,7 +15111,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>13</v>
       </c>
@@ -15160,7 +15193,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>13</v>
       </c>
@@ -15201,7 +15234,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>13</v>
       </c>
@@ -15283,7 +15316,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>13</v>
       </c>
@@ -15365,7 +15398,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_5_2.xlsx
+++ b/data/coded_segments/zm_5_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AADB3B8-C60C-5447-BDB7-8DB2E1366BF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8E11A9-34D6-DD40-B353-F870D5116B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="897">
   <si>
     <t>Color</t>
   </si>
@@ -2823,6 +2823,21 @@
   </si>
   <si>
     <t>7/5/18 12:53:00</t>
+  </si>
+  <si>
+    <t>1: 1981</t>
+  </si>
+  <si>
+    <t>1: 1990</t>
+  </si>
+  <si>
+    <t>07/04/2009</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>11/14/18 11:45:00</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +3302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M297"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15439,6 +15454,47 @@
         <v>891</v>
       </c>
     </row>
+    <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="J297" s="3">
+        <v>10</v>
+      </c>
+      <c r="K297" s="4">
+        <v>0.106123</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_5_2.xlsx
+++ b/data/coded_segments/zm_5_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8E11A9-34D6-DD40-B353-F870D5116B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A950BC28-06B0-6041-8A4A-348BFC65DAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="908">
   <si>
     <t>Color</t>
   </si>
@@ -2611,12 +2611,6 @@
     <t xml:space="preserve">Clindamycin </t>
   </si>
   <si>
-    <t>3: 4171</t>
-  </si>
-  <si>
-    <t>3: 4173</t>
-  </si>
-  <si>
     <t>3: 4178</t>
   </si>
   <si>
@@ -2838,6 +2832,45 @@
   </si>
   <si>
     <t>11/14/18 11:45:00</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/30/19 18:17:40</t>
+  </si>
+  <si>
+    <t>1/30/19 18:18:33</t>
+  </si>
+  <si>
+    <t>1/30/19 18:18:46</t>
+  </si>
+  <si>
+    <t>1/30/19 18:19:05</t>
+  </si>
+  <si>
+    <t>1/30/19 18:19:28</t>
+  </si>
+  <si>
+    <t>1/30/19 18:19:41</t>
+  </si>
+  <si>
+    <t>3: 4171</t>
+  </si>
+  <si>
+    <t>3: 4173</t>
+  </si>
+  <si>
+    <t>1/30/19 18:22:28</t>
+  </si>
+  <si>
+    <t>1/30/19 18:22:38</t>
+  </si>
+  <si>
+    <t>1/30/19 18:22:44</t>
+  </si>
+  <si>
+    <t>1/30/19 18:22:55</t>
   </si>
 </sst>
 </file>
@@ -3302,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M297"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14525,25 +14558,25 @@
         <v>774</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="H274" s="3">
         <v>0</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="J274" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K274" s="4">
-        <v>7.5550000000000001E-3</v>
+        <v>2.7702000000000001E-2</v>
       </c>
       <c r="L274" s="1" t="s">
         <v>20</v>
@@ -14569,22 +14602,22 @@
         <v>275</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="H275" s="3">
         <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="J275" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K275" s="4">
-        <v>2.7702000000000001E-2</v>
+        <v>7.5550000000000001E-3</v>
       </c>
       <c r="L275" s="1" t="s">
         <v>20</v>
@@ -14607,25 +14640,25 @@
         <v>774</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="H276" s="3">
         <v>0</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="J276" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K276" s="4">
-        <v>7.5550000000000001E-3</v>
+        <v>2.5184000000000002E-2</v>
       </c>
       <c r="L276" s="1" t="s">
         <v>20</v>
@@ -14651,28 +14684,28 @@
         <v>276</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="H277" s="3">
         <v>0</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="J277" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K277" s="4">
-        <v>2.5184000000000002E-2</v>
+        <v>7.5550000000000001E-3</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14689,31 +14722,31 @@
         <v>774</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="G278" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J278" s="3">
+        <v>21</v>
+      </c>
+      <c r="K278" s="4">
+        <v>5.2886000000000002E-2</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M278" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="H278" s="3">
-        <v>0</v>
-      </c>
-      <c r="I278" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="J278" s="3">
-        <v>3</v>
-      </c>
-      <c r="K278" s="4">
-        <v>7.5550000000000001E-3</v>
-      </c>
-      <c r="L278" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14730,31 +14763,31 @@
         <v>774</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>831</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>462</v>
+        <v>832</v>
       </c>
       <c r="H279" s="3">
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J279" s="3">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K279" s="4">
-        <v>5.2886000000000002E-2</v>
+        <v>7.5550000000000001E-3</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14771,31 +14804,31 @@
         <v>774</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>833</v>
+        <v>521</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H280" s="3">
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="J280" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K280" s="4">
-        <v>7.5550000000000001E-3</v>
+        <v>3.2738999999999997E-2</v>
       </c>
       <c r="L280" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14812,34 +14845,34 @@
         <v>774</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>521</v>
+        <v>838</v>
       </c>
       <c r="G281" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J281" s="3">
+        <v>7</v>
+      </c>
+      <c r="K281" s="4">
+        <v>1.7628999999999999E-2</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M281" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H281" s="3">
-        <v>0</v>
-      </c>
-      <c r="I281" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="J281" s="3">
-        <v>13</v>
-      </c>
-      <c r="K281" s="4">
-        <v>3.2738999999999997E-2</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>13</v>
       </c>
@@ -14853,34 +14886,34 @@
         <v>774</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G282" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+      <c r="I282" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="H282" s="3">
-        <v>0</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>842</v>
-      </c>
       <c r="J282" s="3">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K282" s="4">
-        <v>1.7628999999999999E-2</v>
+        <v>6.7996000000000001E-2</v>
       </c>
       <c r="L282" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>13</v>
       </c>
@@ -14894,31 +14927,31 @@
         <v>774</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>140</v>
+        <v>842</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>840</v>
+        <v>460</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>601</v>
+        <v>843</v>
       </c>
       <c r="H283" s="3">
         <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J283" s="3">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="K283" s="4">
-        <v>6.7996000000000001E-2</v>
+        <v>1.2592000000000001E-2</v>
       </c>
       <c r="L283" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14935,31 +14968,31 @@
         <v>774</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>844</v>
+        <v>186</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>460</v>
+        <v>845</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H284" s="3">
         <v>0</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J284" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K284" s="4">
-        <v>1.2592000000000001E-2</v>
+        <v>2.7702000000000001E-2</v>
       </c>
       <c r="L284" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14976,31 +15009,31 @@
         <v>774</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="G285" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J285" s="3">
+        <v>4</v>
+      </c>
+      <c r="K285" s="4">
+        <v>1.0074E-2</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M285" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="H285" s="3">
-        <v>0</v>
-      </c>
-      <c r="I285" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J285" s="3">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4">
-        <v>2.7702000000000001E-2</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M285" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15017,7 +15050,7 @@
         <v>774</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>190</v>
+        <v>304</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>851</v>
@@ -15029,19 +15062,19 @@
         <v>0</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>473</v>
+        <v>853</v>
       </c>
       <c r="J286" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K286" s="4">
-        <v>1.0074E-2</v>
+        <v>3.7775999999999997E-2</v>
       </c>
       <c r="L286" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15061,31 +15094,31 @@
         <v>304</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H287" s="3">
         <v>0</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="J287" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K287" s="4">
-        <v>3.7775999999999997E-2</v>
+        <v>6.0441000000000002E-2</v>
       </c>
       <c r="L287" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -15102,31 +15135,31 @@
         <v>304</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H288" s="3">
         <v>0</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J288" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K288" s="4">
-        <v>6.0441000000000002E-2</v>
+        <v>6.7996000000000001E-2</v>
       </c>
       <c r="L288" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>13</v>
       </c>
@@ -15137,242 +15170,242 @@
         <v>14</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>774</v>
+        <v>860</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>304</v>
+        <v>661</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G289" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="J289" s="3">
+        <v>17</v>
+      </c>
+      <c r="K289" s="4">
+        <v>0.11011799999999999</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="H289" s="3">
-        <v>0</v>
-      </c>
-      <c r="I289" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="J289" s="3">
-        <v>27</v>
-      </c>
-      <c r="K289" s="4">
-        <v>6.7996000000000001E-2</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M289" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>862</v>
-      </c>
       <c r="E290" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="J290" s="3">
+        <v>77</v>
+      </c>
+      <c r="K290" s="4">
+        <v>0.49876900000000002</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="J291" s="3">
+        <v>136</v>
+      </c>
+      <c r="K291" s="4">
+        <v>0.93099699999999996</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="E292" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F290" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="H290" s="3">
-        <v>0</v>
-      </c>
-      <c r="I290" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="J290" s="3">
-        <v>17</v>
-      </c>
-      <c r="K290" s="4">
-        <v>0.11011799999999999</v>
-      </c>
-      <c r="L290" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M290" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="H291" s="3">
-        <v>0</v>
-      </c>
-      <c r="I291" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="J291" s="3">
-        <v>77</v>
-      </c>
-      <c r="K291" s="4">
-        <v>0.49876900000000002</v>
-      </c>
-      <c r="L291" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M291" s="1" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="E292" s="1" t="s">
+      <c r="F292" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H292" s="3">
+        <v>0</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="J292" s="3">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4">
+        <v>0.112693</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E293" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F292" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H292" s="3">
-        <v>0</v>
-      </c>
-      <c r="I292" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="J292" s="3">
-        <v>136</v>
-      </c>
-      <c r="K292" s="4">
-        <v>0.93099699999999996</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M292" s="1" t="s">
+      <c r="F293" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H293" s="3">
+        <v>0</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="J293" s="3">
+        <v>169</v>
+      </c>
+      <c r="K293" s="4">
+        <v>0.42330400000000001</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F293" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="H293" s="3">
-        <v>0</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J293" s="3">
+      <c r="H294" s="3">
+        <v>0</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="J294" s="3">
         <v>11</v>
       </c>
-      <c r="K293" s="4">
-        <v>0.112693</v>
-      </c>
-      <c r="L293" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M293" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F294" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="G294" s="1" t="s">
+      <c r="K294" s="4">
+        <v>8.1102999999999995E-2</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M294" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="H294" s="3">
-        <v>0</v>
-      </c>
-      <c r="I294" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="J294" s="3">
-        <v>169</v>
-      </c>
-      <c r="K294" s="4">
-        <v>0.42330400000000001</v>
-      </c>
-      <c r="L294" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M294" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>13</v>
       </c>
@@ -15389,31 +15422,31 @@
         <v>661</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>214</v>
+        <v>886</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="H295" s="3">
         <v>0</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="J295" s="3">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="K295" s="4">
-        <v>8.1102999999999995E-2</v>
+        <v>0.72570199999999996</v>
       </c>
       <c r="L295" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>13</v>
       </c>
@@ -15424,34 +15457,34 @@
         <v>14</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>887</v>
+        <v>164</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="H296" s="3">
         <v>0</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J296" s="3">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="K296" s="4">
-        <v>0.72570199999999996</v>
+        <v>0.106123</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>20</v>
+        <v>893</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15465,34 +15498,403 @@
         <v>14</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>892</v>
+        <v>91</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>893</v>
+        <v>92</v>
       </c>
       <c r="H297" s="3">
         <v>0</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>894</v>
+        <v>82</v>
       </c>
       <c r="J297" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K297" s="4">
-        <v>0.106123</v>
+        <v>1.5888147442008262E-2</v>
       </c>
       <c r="L297" s="1" t="s">
         <v>895</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>896</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H298" s="3">
+        <v>0</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J298" s="3">
+        <v>3</v>
+      </c>
+      <c r="K298" s="4">
+        <v>2.2542831379621278E-2</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J299" s="3">
+        <v>3</v>
+      </c>
+      <c r="K299" s="4">
+        <v>2.2542831379621278E-2</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J300" s="3">
+        <v>6</v>
+      </c>
+      <c r="K300" s="4">
+        <v>2.3558050963916919E-2</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J301" s="3">
+        <v>4</v>
+      </c>
+      <c r="K301" s="4">
+        <v>2.0980854969840021E-2</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H302" s="3">
+        <v>0</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J302" s="3">
+        <v>4</v>
+      </c>
+      <c r="K302" s="4">
+        <v>2.0980854969840021E-2</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="J303" s="3">
+        <v>3</v>
+      </c>
+      <c r="K303" s="4">
+        <v>7.5551526140828044E-3</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="J304" s="3">
+        <v>3</v>
+      </c>
+      <c r="K304" s="4">
+        <v>7.5551526140828044E-3</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="J305" s="3">
+        <v>3</v>
+      </c>
+      <c r="K305" s="4">
+        <v>7.5551526140828044E-3</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J306" s="3">
+        <v>3</v>
+      </c>
+      <c r="K306" s="4">
+        <v>7.5551526140828044E-3</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>
